--- a/PoolPopSeq/sample_coverage.xlsx
+++ b/PoolPopSeq/sample_coverage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="112">
   <si>
     <t>Sample</t>
   </si>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2732,8 +2732,8 @@
       <c r="C144" t="b">
         <v>0</v>
       </c>
-      <c r="D144" t="s">
-        <v>111</v>
+      <c r="D144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,8 +2746,8 @@
       <c r="C145" t="b">
         <v>0</v>
       </c>
-      <c r="D145" t="s">
-        <v>111</v>
+      <c r="D145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,8 +2760,8 @@
       <c r="C146" t="b">
         <v>0</v>
       </c>
-      <c r="D146" t="s">
-        <v>111</v>
+      <c r="D146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,8 +2771,8 @@
       <c r="B147">
         <v>200</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>109</v>
+      <c r="C147" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
